--- a/Таблицы домашнего назначения/Андрей статистика.xlsx
+++ b/Таблицы домашнего назначения/Андрей статистика.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
   <si>
     <t>п\п</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Титан</t>
+  </si>
+  <si>
+    <t>Стоик</t>
   </si>
 </sst>
 </file>
@@ -958,7 +961,7 @@
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,10 +1262,18 @@
       <c r="P8" s="2">
         <v>5</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="Q8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S8" s="2">
+        <v>600</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -2042,7 +2053,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2">
         <f>SUM(S4:S32)</f>
-        <v>2218</v>
+        <v>2818</v>
       </c>
       <c r="T33" s="2" t="str">
         <f>IF(Таблица1[[#This Row],[Страницы]]&gt;25000, "Цель 25к достигнута=)", "Цель 25к не достигнута=(")</f>
